--- a/biology/Médecine/Idy_Hegnauer/Idy_Hegnauer.xlsx
+++ b/biology/Médecine/Idy_Hegnauer/Idy_Hegnauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idy Hegnauer, née le 12 septembre 1909 et morte le 19 novembre 2006[1], est une infirmière suisse et militante pour la paix, qui travaillait pour le Service civil international.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idy Hegnauer, née le 12 septembre 1909 et morte le 19 novembre 2006, est une infirmière suisse et militante pour la paix, qui travaillait pour le Service civil international.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idy Hegnauer est né à Obfelden, en Suisse[1]. Elle était la fille de Jakob Häberling, qui travaillait comme menuisier, et de Marie. Hegnauer était une quakeresse. Elle est décédée en 2006 à Affoltern am Albis, en Suisse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idy Hegnauer est né à Obfelden, en Suisse. Elle était la fille de Jakob Häberling, qui travaillait comme menuisier, et de Marie. Hegnauer était une quakeresse. Elle est décédée en 2006 à Affoltern am Albis, en Suisse.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la guerre civile espagnole, Idy Hegnauer s'est enrôlée dans le Service civil international (SCI) et a travaillé à Valence. En Espagne, elle a rencontré son futur mari, Ralph Hegnauer, également impliqué dans le SCI[2].
-Après la Seconde Guerre mondiale, Hegnauer a travaillé avec l'American Friends Service Committee pendant le conflit israélo-palestinien . Elle a aidé les villageois de Tur'an, en Israël, en leur fournissant une assistance médicale[2],[3].
-En 1960, elle a fait une présentation sur les réfugiés algériens en Tunisie, alors qu'elle travaillait dans le pays pendant la guerre d'Algérie[4],[5]. Idy Hegnauer a contribué à lever 900 000 francs suisses pour le SCI[2].
-Après la Seconde Guerre mondiale, Idy Hegnauer a également travaillé en Grèce, en Inde, en Autriche et en Yougoslavie[1],[2]. De 1980 à 1984, elle a travaillé dans un hôpital pour enfants à Affoltern am Albis, en Suisse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la guerre civile espagnole, Idy Hegnauer s'est enrôlée dans le Service civil international (SCI) et a travaillé à Valence. En Espagne, elle a rencontré son futur mari, Ralph Hegnauer, également impliqué dans le SCI.
+Après la Seconde Guerre mondiale, Hegnauer a travaillé avec l'American Friends Service Committee pendant le conflit israélo-palestinien . Elle a aidé les villageois de Tur'an, en Israël, en leur fournissant une assistance médicale,.
+En 1960, elle a fait une présentation sur les réfugiés algériens en Tunisie, alors qu'elle travaillait dans le pays pendant la guerre d'Algérie,. Idy Hegnauer a contribué à lever 900 000 francs suisses pour le SCI.
+Après la Seconde Guerre mondiale, Idy Hegnauer a également travaillé en Grèce, en Inde, en Autriche et en Yougoslavie,. De 1980 à 1984, elle a travaillé dans un hôpital pour enfants à Affoltern am Albis, en Suisse.
 </t>
         </is>
       </c>
